--- a/data/trans_orig/Q21A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>1.840665031153476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.078975730431993</v>
+        <v>2.078975730431994</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.935325476342446</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.532216921784083</v>
+        <v>1.53368543119288</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.676572160538053</v>
+        <v>1.684567256226122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.621487280147348</v>
+        <v>1.62266538445471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.718884914968323</v>
+        <v>1.72844918295792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.763440815938604</v>
+        <v>1.753014039553846</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.951429729225804</v>
+        <v>1.981716635655239</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.944205997584729</v>
+        <v>1.952746999185572</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.931196943684333</v>
+        <v>1.917956402167185</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.721406121353534</v>
+        <v>1.74178347428402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.906380906422251</v>
+        <v>1.918011116801766</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.874882148133054</v>
+        <v>1.864954939342069</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.929172471006717</v>
+        <v>1.928776114282725</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.027631245360846</v>
+        <v>2.020890073998675</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.454351469285286</v>
+        <v>2.439344177554545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.209469768712378</v>
+        <v>2.216719531016174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.657670840145987</v>
+        <v>2.646651598889431</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.158397954249396</v>
+        <v>2.139103402224054</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.469117773432307</v>
+        <v>2.513260108349574</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.735001421694062</v>
+        <v>2.652068629862563</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.980660064576818</v>
+        <v>2.978456472411902</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.043635657197923</v>
+        <v>2.072463480139124</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.317684910789872</v>
+        <v>2.348539298650908</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.373584846009482</v>
+        <v>2.338128129644248</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.578001961747594</v>
+        <v>2.587790752851781</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.217564853391818</v>
+        <v>1.218529847820479</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.387521727334947</v>
+        <v>1.374440648333225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.325909510613653</v>
+        <v>1.338070627432155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.58398293926043</v>
+        <v>1.582472761050128</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.51881313267901</v>
+        <v>1.521249737338707</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.562486762164246</v>
+        <v>1.563559387342544</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.588999833086127</v>
+        <v>1.581148760063765</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.539068463192073</v>
+        <v>1.543743643175813</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.433086393770735</v>
+        <v>1.434036848362128</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.524912350476002</v>
+        <v>1.530796969650378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.520627369132788</v>
+        <v>1.523266222321078</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.625575261500075</v>
+        <v>1.624600798882916</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.775757766160962</v>
+        <v>1.721082912895138</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.964672749655756</v>
+        <v>1.881535957196375</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.135799972764921</v>
+        <v>2.256515285018101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.610052936929657</v>
+        <v>3.585051119225675</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.024692317621429</v>
+        <v>2.015008257981076</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.076206478379861</v>
+        <v>2.057820281195245</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.006123070483571</v>
+        <v>1.997562783692533</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.98418247863377</v>
+        <v>2.043284522306544</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.756040794333534</v>
+        <v>1.783064534834126</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.854223102202273</v>
+        <v>1.865596440437352</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.941061902662875</v>
+        <v>1.899318004385339</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.439651475051787</v>
+        <v>2.546100887601386</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>1.561606690058301</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2.136340165287674</v>
+        <v>2.136340165287675</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1.375622960725701</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.115869282732491</v>
+        <v>1.118993527428495</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.374383018688652</v>
+        <v>1.391310193545843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.175639889253517</v>
+        <v>1.16760801987242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.405720659592473</v>
+        <v>1.396489083574331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.393784257252487</v>
+        <v>1.380216059924892</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.414869822372192</v>
+        <v>1.421004436057894</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.34729967934343</v>
+        <v>1.345310216708926</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.84715887333729</v>
+        <v>1.846572652504345</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.292432066087841</v>
+        <v>1.285718526596705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.437977683477549</v>
+        <v>1.455393266513221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.309923805631709</v>
+        <v>1.314415441649644</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.699143607875234</v>
+        <v>1.705528938701241</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.264075194743098</v>
+        <v>1.27770275306872</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.838492403440096</v>
+        <v>1.843306721442454</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.459066590678912</v>
+        <v>1.461471805871695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.848840065849402</v>
+        <v>1.800689675049379</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.746007993753406</v>
+        <v>1.769743173465106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.814948600009759</v>
+        <v>1.798291762020064</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.037146535903158</v>
+        <v>2.107608180479679</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.796902219364865</v>
+        <v>2.814372185978403</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.534979946841402</v>
+        <v>1.50610758163954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.732178823562201</v>
+        <v>1.732772351312508</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.714697497576049</v>
+        <v>1.725427963015453</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.260661065781222</v>
+        <v>2.318737052362266</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.122406471454988</v>
+        <v>1.12360935918924</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.353809710925983</v>
+        <v>1.372232181667846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.424208450609021</v>
+        <v>1.427500716565287</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.43539760343147</v>
+        <v>1.4411033583182</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.463941934617412</v>
+        <v>1.487212124477576</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.516403511271672</v>
+        <v>1.52151244743986</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.591319074504752</v>
+        <v>1.590211245460515</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.69663663024439</v>
+        <v>1.710975968746453</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.302195966862472</v>
+        <v>1.307722611371582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.573157749003992</v>
+        <v>1.552618593266325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.569894569136951</v>
+        <v>1.55243692542674</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.600414917275069</v>
+        <v>1.606309040170714</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.556381242315864</v>
+        <v>1.535072725039134</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.381129846514188</v>
+        <v>4.074962732315417</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.092724922868933</v>
+        <v>2.075139864352328</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.016108975339665</v>
+        <v>1.990087717559372</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.226498866695827</v>
+        <v>2.237704322228381</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.105209082873051</v>
+        <v>2.0982306619614</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.388068000166025</v>
+        <v>2.363027129625111</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.563358786929424</v>
+        <v>2.594477730174441</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.682120165768447</v>
+        <v>1.690072838509775</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.58873556931342</v>
+        <v>2.585802361442002</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.122752369519201</v>
+        <v>2.097523464774705</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.048211177651797</v>
+        <v>2.089777623186696</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>1.774772321399798</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>1.906029982817738</v>
+        <v>1.906029982817737</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.283050137990748</v>
+        <v>1.281886829832481</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.59449987990953</v>
+        <v>1.57885301354318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.497468853154674</v>
+        <v>1.49612564501388</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.63179641249353</v>
+        <v>1.624425744381389</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.646012560521956</v>
+        <v>1.642947075995325</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.783716171671988</v>
+        <v>1.778755272636793</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.754355900591003</v>
+        <v>1.765940417106177</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.840922968024899</v>
+        <v>1.843574667143284</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.51914062801086</v>
+        <v>1.518304832027262</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.729221436162407</v>
+        <v>1.732411511467989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.674842244315592</v>
+        <v>1.674587181337167</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.780682675196994</v>
+        <v>1.791898900193763</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.476716224263142</v>
+        <v>1.471797885695501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.961262836780743</v>
+        <v>1.965520539194118</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.801150611356252</v>
+        <v>1.812876022981972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.113812715230893</v>
+        <v>2.170146146971705</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.859639960871835</v>
+        <v>1.878509205552684</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.04034686038655</v>
+        <v>2.041776048650598</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.113706701393587</v>
+        <v>2.106269446090782</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.197550708876866</v>
+        <v>2.23496512553475</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.681103653549586</v>
+        <v>1.678845851684251</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.944032990765625</v>
+        <v>1.965665228179992</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.915437565365118</v>
+        <v>1.91128098587093</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.062422531055646</v>
+        <v>2.085647369411679</v>
       </c>
     </row>
     <row r="19">
